--- a/analysis/Experiment2/Queue Length Xvariabile mfisso lognormal.xlsx
+++ b/analysis/Experiment2/Queue Length Xvariabile mfisso lognormal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f9303874ca806c9/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\Experiment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{FD8D3E9B-D17F-4EDE-ACF3-1228E34F9931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D4C9ABE-6B17-473A-936A-20D1D0B2F1DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0B54A1-D552-4E70-9149-D59B4999D9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{EDBB8478-E643-4BF0-B900-BC1F2C343C2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDBB8478-E643-4BF0-B900-BC1F2C343C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="6">
   <si>
     <t>Experiment</t>
   </si>
@@ -57,6 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -212,29 +216,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Foglio1!$B$2,Foglio1!$B$8,Foglio1!$B$14,Foglio1!$B$20,Foglio1!$B$26,Foglio1!$B$32,Foglio1!$B$38)</c:f>
+              <c:f>Foglio1!$D$32:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -244,7 +245,7 @@
             <c:numRef>
               <c:f>(Foglio1!$E$2,Foglio1!$E$8,Foglio1!$E$14,Foglio1!$E$20,Foglio1!$E$26,Foglio1!$E$32,Foglio1!$E$38)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.71238400000000002</c:v>
@@ -309,29 +310,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Foglio1!$B$2,Foglio1!$B$8,Foglio1!$B$14,Foglio1!$B$20,Foglio1!$B$26,Foglio1!$B$32,Foglio1!$B$38)</c:f>
+              <c:f>Foglio1!$D$32:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -341,7 +339,7 @@
             <c:numRef>
               <c:f>(Foglio1!$E$3,Foglio1!$E$9,Foglio1!$E$15,Foglio1!$E$21,Foglio1!$E$27,Foglio1!$E$33,Foglio1!$E$39)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.486597</c:v>
@@ -371,6 +369,382 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5B09-4A49-9681-AF3FF181317E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>K=13ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$32:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$4,Foglio1!$E$10,Foglio1!$E$16,Foglio1!$E$22,Foglio1!$E$28,Foglio1!$E$34,Foglio1!$E$40)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.24629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33339999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6565000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.9754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.775700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>679.6431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AFE-462F-A200-F0BC9F7383E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>k=15ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$32:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$5,Foglio1!$E$11,Foglio1!$E$17,Foglio1!$E$23,Foglio1!$E$29,Foglio1!$E$35,Foglio1!$E$41)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2264999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.849399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6894999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.7376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>547.28020000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4AFE-462F-A200-F0BC9F7383E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>k=20ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$32:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$6,Foglio1!$E$12,Foglio1!$E$18,Foglio1!$E$24,Foglio1!$E$30,Foglio1!$E$36,Foglio1!$E$42)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.9899999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3699000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.3154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2171000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330.1078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4AFE-462F-A200-F0BC9F7383E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>k=50ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$32:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$7,Foglio1!$E$13,Foglio1!$E$19,Foglio1!$E$25,Foglio1!$E$31,Foglio1!$E$37,Foglio1!$E$43)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.26E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8749000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.4337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.349299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4AFE-462F-A200-F0BC9F7383E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -569,7 +943,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -828,7 +1202,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.71238400000000002</c:v>
@@ -919,7 +1293,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$8:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.82640199999999997</c:v>
@@ -1010,7 +1384,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$14:$E$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12.158099999999999</c:v>
@@ -1101,7 +1475,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$20:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>33.308500000000002</c:v>
@@ -1192,7 +1566,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$26:$E$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13.283799999999999</c:v>
@@ -1283,7 +1657,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$32:$E$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>84.035499999999999</c:v>
@@ -1380,7 +1754,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$38:$E$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1136.3752999999999</c:v>
@@ -1610,7 +1984,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1879,7 +2253,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.71238400000000002</c:v>
@@ -1970,7 +2344,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$8:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.82640199999999997</c:v>
@@ -2061,7 +2435,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$14:$E$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12.158099999999999</c:v>
@@ -2152,7 +2526,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$20:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>33.308500000000002</c:v>
@@ -2243,7 +2617,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$26:$E$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13.283799999999999</c:v>
@@ -2486,7 +2860,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2541,6 +2915,2681 @@
           <c:h val="0.31942301931168315"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue Length for m=0.5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$82:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7199999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31C2-4CE1-8F6F-48C2587F7CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$82:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$52:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0999000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84309999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5600000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-31C2-4CE1-8F6F-48C2587F7CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$82:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$58:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.64080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-31C2-4CE1-8F6F-48C2587F7CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$82:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$64:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48.395000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.786999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.610700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.980699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.2578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8870000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-31C2-4CE1-8F6F-48C2587F7CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$82:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$70:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59.890700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.773000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.147500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.8568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.626200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.1395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-31C2-4CE1-8F6F-48C2587F7CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>X=10s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$82:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$76:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>164.2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147.00219999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.7985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.316999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.450599999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.119599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-31C2-4CE1-8F6F-48C2587F7CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>X=50s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$82:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$82:$E$87</c:f>
+              <c:numCache>
+                <c:formatCode>00,000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2734.6082999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2417.8526999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1740.6501000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1450.527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>968.99810000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294.6472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-31C2-4CE1-8F6F-48C2587F7CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="386206608"/>
+        <c:axId val="493799840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="386206608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42218635170603669"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493799840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493799840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Queue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386206608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue Length for m=0.5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K=9ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$46,Foglio1!$B$52,Foglio1!$B$58,Foglio1!$B$64,Foglio1!$B$70,Foglio1!$B$76,Foglio1!$B$84)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$46,Foglio1!$E$52,Foglio1!$E$58,Foglio1!$E$64,Foglio1!$E$70,Foglio1!$E$76,Foglio1!$E$82)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.68410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.395000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.890700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164.2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2734.6082999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-501B-4313-AD99-4BA99F61EE11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k=10ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$46,Foglio1!$B$52,Foglio1!$B$58,Foglio1!$B$64,Foglio1!$B$70,Foglio1!$B$76,Foglio1!$B$84)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$47,Foglio1!$E$53,Foglio1!$E$59,Foglio1!$E$65,Foglio1!$E$71,Foglio1!$E$77,Foglio1!$E$83)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.49280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84309999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.786999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.773000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147.00219999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2417.8526999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-501B-4313-AD99-4BA99F61EE11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>k=13ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$46,Foglio1!$B$52,Foglio1!$B$58,Foglio1!$B$64,Foglio1!$B$70,Foglio1!$B$76,Foglio1!$B$84)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$48,Foglio1!$E$54,Foglio1!$E$60,Foglio1!$E$66,Foglio1!$E$72,Foglio1!$E$78,Foglio1!$E$84)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.610700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.147500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.7985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1740.6501000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-501B-4313-AD99-4BA99F61EE11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>k=15ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$46,Foglio1!$B$52,Foglio1!$B$58,Foglio1!$B$64,Foglio1!$B$70,Foglio1!$B$76,Foglio1!$B$84)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$49,Foglio1!$E$55,Foglio1!$E$61,Foglio1!$E$67,Foglio1!$E$73,Foglio1!$E$79,Foglio1!$E$85)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.18229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.980699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.8568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.316999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1450.527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-501B-4313-AD99-4BA99F61EE11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>K=20ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$46,Foglio1!$B$52,Foglio1!$B$58,Foglio1!$B$64,Foglio1!$B$70,Foglio1!$B$76,Foglio1!$B$84)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$50,Foglio1!$E$56,Foglio1!$E$62,Foglio1!$E$68,Foglio1!$E$74,Foglio1!$E$80,Foglio1!$E$86)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.7199999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.2578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.626200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.450599999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>968.99810000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-501B-4313-AD99-4BA99F61EE11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>k=50ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$46,Foglio1!$B$52,Foglio1!$B$58,Foglio1!$B$64,Foglio1!$B$70,Foglio1!$B$76,Foglio1!$B$84)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$51,Foglio1!$E$57,Foglio1!$E$63,Foglio1!$E$69,Foglio1!$E$75,Foglio1!$E$81,Foglio1!$E$87)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.1395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.119599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>294.6472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-501B-4313-AD99-4BA99F61EE11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="386211808"/>
+        <c:axId val="752256352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="386211808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Malus X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752256352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="752256352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Queue Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386211808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue Length for m=0.5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$46:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7199999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9FC-4BCC-84ED-223AF3A97187}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$46:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$52:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0999000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84309999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5600000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9FC-4BCC-84ED-223AF3A97187}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$46:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$58:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.64080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F9FC-4BCC-84ED-223AF3A97187}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="768816576"/>
+        <c:axId val="752253856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="768816576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752253856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="752253856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Queue Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768816576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2734,6 +5783,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3741,6 +6910,1515 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4348,6 +9026,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAF730A-3E5B-466D-9D63-6E042488CE97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC73D22C-10E2-4882-B84D-19A37E2CBC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106C207D-FFC1-4BE9-B00E-45568C43A002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4653,19 +9439,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580644AA-C2B0-43E6-B56A-09D7C6FC38E5}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4678,11 +9464,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4695,11 +9481,11 @@
       <c r="D2">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.71238400000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4712,11 +9498,11 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.486597</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4729,11 +9515,11 @@
       <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.24629999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4746,11 +9532,11 @@
       <c r="D5">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4763,11 +9549,11 @@
       <c r="D6">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>8.9899999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4780,11 +9566,11 @@
       <c r="D7">
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4797,11 +9583,11 @@
       <c r="D8">
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.82640199999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4814,11 +9600,11 @@
       <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.601074</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -4831,11 +9617,11 @@
       <c r="D10">
         <v>13</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.33339999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -4848,11 +9634,11 @@
       <c r="D11">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.24310000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -4865,11 +9651,11 @@
       <c r="D12">
         <v>20</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.14169999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -4882,11 +9668,11 @@
       <c r="D13">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -4899,11 +9685,11 @@
       <c r="D14">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>12.158099999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -4916,11 +9702,11 @@
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>10.5039</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -4933,11 +9719,11 @@
       <c r="D16">
         <v>13</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>7.6565000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -4950,11 +9736,11 @@
       <c r="D17">
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>6.2264999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -4967,11 +9753,11 @@
       <c r="D18">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>4.3699000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4984,11 +9770,11 @@
       <c r="D19">
         <v>50</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>1.6914</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -5001,11 +9787,11 @@
       <c r="D20">
         <v>9</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>33.308500000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -5018,11 +9804,11 @@
       <c r="D21">
         <v>10</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>31.8064</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -5035,11 +9821,11 @@
       <c r="D22">
         <v>13</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>26.9754</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -5052,11 +9838,11 @@
       <c r="D23">
         <v>15</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>22.849399999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -5069,11 +9855,11 @@
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>14.3154</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -5086,11 +9872,11 @@
       <c r="D25">
         <v>50</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>6.8749000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -5103,11 +9889,11 @@
       <c r="D26">
         <v>9</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>13.283799999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -5120,11 +9906,11 @@
       <c r="D27">
         <v>10</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>10.1469</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -5137,11 +9923,11 @@
       <c r="D28">
         <v>13</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>6.8979999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -5154,11 +9940,11 @@
       <c r="D29">
         <v>15</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>5.6894999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -5171,11 +9957,11 @@
       <c r="D30">
         <v>20</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>4.2171000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -5188,11 +9974,11 @@
       <c r="D31">
         <v>50</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>1.6919</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -5205,11 +9991,11 @@
       <c r="D32">
         <v>9</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>84.035499999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -5222,11 +10008,11 @@
       <c r="D33">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>79.308400000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -5239,11 +10025,11 @@
       <c r="D34">
         <v>13</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>60.775700000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -5256,11 +10042,11 @@
       <c r="D35">
         <v>15</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>52.7376</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -5273,11 +10059,11 @@
       <c r="D36">
         <v>20</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>34.67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -5290,11 +10076,11 @@
       <c r="D37">
         <v>50</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>10.4337</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -5307,11 +10093,11 @@
       <c r="D38">
         <v>9</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>1136.3752999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -5324,11 +10110,11 @@
       <c r="D39">
         <v>10</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>989.83950000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -5341,11 +10127,11 @@
       <c r="D40">
         <v>13</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>679.6431</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -5358,11 +10144,11 @@
       <c r="D41">
         <v>15</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>547.28020000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -5375,11 +10161,11 @@
       <c r="D42">
         <v>20</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>330.1078</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -5392,8 +10178,739 @@
       <c r="D43">
         <v>50</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>80.349299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>0.01</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.68410000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>0.01</v>
+      </c>
+      <c r="C47">
+        <v>0.5</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.49280000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>0.01</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>0.01</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.18229999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>0.01</v>
+      </c>
+      <c r="C50">
+        <v>0.5</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9.7199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>0.01</v>
+      </c>
+      <c r="C51">
+        <v>0.5</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>0.05</v>
+      </c>
+      <c r="C52">
+        <v>0.5</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.0999000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>0.05</v>
+      </c>
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.84309999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>0.05</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="D54">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.50660000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>0.05</v>
+      </c>
+      <c r="C55">
+        <v>0.5</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.39150000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>0.05</v>
+      </c>
+      <c r="C56">
+        <v>0.5</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.24690000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>0.05</v>
+      </c>
+      <c r="C57">
+        <v>0.5</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57" s="1">
+        <v>6.5600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>0.5</v>
+      </c>
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.64080000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>0.5</v>
+      </c>
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.4501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.23530000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>0.5</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62" s="1">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>0.5</v>
+      </c>
+      <c r="C63">
+        <v>0.5</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0.5</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1">
+        <v>48.395000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0.5</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1">
+        <v>46.786999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0.5</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1">
+        <v>36.610700000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0.5</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+      <c r="E67" s="1">
+        <v>29.980699999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0.5</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68" s="1">
+        <v>21.2578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0.5</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
+      </c>
+      <c r="E69" s="1">
+        <v>8.8870000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>0.5</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1">
+        <v>59.890700000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>0.5</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1">
+        <v>55.773000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>0.5</v>
+      </c>
+      <c r="D72">
+        <v>13</v>
+      </c>
+      <c r="E72" s="1">
+        <v>42.147500000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>0.5</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73" s="1">
+        <v>37.8568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74" s="1">
+        <v>28.626200000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0.5</v>
+      </c>
+      <c r="D75">
+        <v>50</v>
+      </c>
+      <c r="E75" s="1">
+        <v>11.1395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>0.5</v>
+      </c>
+      <c r="D76">
+        <v>9</v>
+      </c>
+      <c r="E76" s="1">
+        <v>164.2013</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77" s="1">
+        <v>147.00219999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>0.5</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="E78" s="1">
+        <v>110.7985</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>0.5</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+      <c r="E79" s="1">
+        <v>99.316999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>0.5</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80" s="1">
+        <v>71.450599999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>0.5</v>
+      </c>
+      <c r="D81">
+        <v>50</v>
+      </c>
+      <c r="E81" s="1">
+        <v>25.119599999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+      <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2734.6082999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>0.5</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2417.8526999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>50</v>
+      </c>
+      <c r="C84">
+        <v>0.5</v>
+      </c>
+      <c r="D84">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1740.6501000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>50</v>
+      </c>
+      <c r="C85">
+        <v>0.5</v>
+      </c>
+      <c r="D85">
+        <v>15</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1450.527</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+      <c r="C86">
+        <v>0.5</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+      <c r="E86" s="1">
+        <v>968.99810000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>50</v>
+      </c>
+      <c r="C87">
+        <v>0.5</v>
+      </c>
+      <c r="D87">
+        <v>50</v>
+      </c>
+      <c r="E87" s="1">
+        <v>294.6472</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/Experiment2/Queue Length Xvariabile mfisso lognormal.xlsx
+++ b/analysis/Experiment2/Queue Length Xvariabile mfisso lognormal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\Experiment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0B54A1-D552-4E70-9149-D59B4999D9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F746517-7B67-4C90-AB99-96CF5E3330A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDBB8478-E643-4BF0-B900-BC1F2C343C2E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="6">
   <si>
     <t>Experiment</t>
   </si>
@@ -3676,7 +3676,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$82:$E$87</c:f>
               <c:numCache>
-                <c:formatCode>00,000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2734.6082999999999</c:v>
@@ -5663,6 +5663,2951 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue Length for m=4,5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$90:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33CB-439A-A151-C65EA70714B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$96:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.74709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-33CB-439A-A151-C65EA70714B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$102:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-33CB-439A-A151-C65EA70714B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$108:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.021599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.2972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6096000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6380999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1964999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-33CB-439A-A151-C65EA70714B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$114:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59.944400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.239600000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.653500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.6264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.604800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8331999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-33CB-439A-A151-C65EA70714B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>X=10s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$120:$E$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>68.291899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.837899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.002000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.827400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.4657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0797999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-33CB-439A-A151-C65EA70714B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>X=50s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$126:$E$131</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1059.1928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>903.81510000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>581.0163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>443.13189999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.86130000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.545599999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-33CB-439A-A151-C65EA70714B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="546183408"/>
+        <c:axId val="551197888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="546183408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Interarrival</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Time k [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551197888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551197888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Queue Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546183408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Length  for m=4,5s</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$90:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CA5-4B78-B7D8-210148C0F5F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$96:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.74709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5CA5-4B78-B7D8-210148C0F5F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$102:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5CA5-4B78-B7D8-210148C0F5F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$108:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.021599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.2972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6096000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6380999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1964999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5CA5-4B78-B7D8-210148C0F5F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$114:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59.944400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.239600000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.653500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.6264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.604800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8331999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5CA5-4B78-B7D8-210148C0F5F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>X=10s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$120:$E$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>68.291899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.837899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.002000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.827400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.4657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0797999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5CA5-4B78-B7D8-210148C0F5F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="640874192"/>
+        <c:axId val="551187488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="640874192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551187488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551187488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Queue Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640874192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue Length for m=4,5s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k=9ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$90,Foglio1!$B$96,Foglio1!$B$102,Foglio1!$B$108,Foglio1!$B$114,Foglio1!$B$121,Foglio1!$B$126)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$90,Foglio1!$E$96,Foglio1!$E$102,Foglio1!$E$108,Foglio1!$E$114,Foglio1!$E$120,Foglio1!$E$126)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.68669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.021599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.944400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.291899999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1059.1928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19AA-4C48-863E-0C9409432038}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k=10ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$90,Foglio1!$B$96,Foglio1!$B$102,Foglio1!$B$108,Foglio1!$B$114,Foglio1!$B$121,Foglio1!$B$126)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$91,Foglio1!$E$97,Foglio1!$E$103,Foglio1!$E$109,Foglio1!$E$115,Foglio1!$E$121,Foglio1!$E$127)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.2972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.239600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.837899999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>903.81510000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-19AA-4C48-863E-0C9409432038}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>k=13ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$90,Foglio1!$B$96,Foglio1!$B$102,Foglio1!$B$108,Foglio1!$B$114,Foglio1!$B$121,Foglio1!$B$126)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$92,Foglio1!$E$98,Foglio1!$E$104,Foglio1!$E$110,Foglio1!$E$116,Foglio1!$E$122,Foglio1!$E$128)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.24229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6096000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.653500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.002000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>581.0163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-19AA-4C48-863E-0C9409432038}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>k=15ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$90,Foglio1!$B$96,Foglio1!$B$102,Foglio1!$B$108,Foglio1!$B$114,Foglio1!$B$121,Foglio1!$B$126)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$93,Foglio1!$E$99,Foglio1!$E$105,Foglio1!$E$111,Foglio1!$E$117,Foglio1!$E$123,Foglio1!$E$129)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.6264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.827400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>443.13189999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-19AA-4C48-863E-0C9409432038}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>k=20ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$90,Foglio1!$B$96,Foglio1!$B$102,Foglio1!$B$108,Foglio1!$B$114,Foglio1!$B$121,Foglio1!$B$126)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$94,Foglio1!$E$100,Foglio1!$E$106,Foglio1!$E$112,Foglio1!$E$118,Foglio1!$E$124,Foglio1!$E$130)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6380999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.604800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.4657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256.86130000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-19AA-4C48-863E-0C9409432038}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>k=50ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$90,Foglio1!$B$96,Foglio1!$B$102,Foglio1!$B$108,Foglio1!$B$114,Foglio1!$B$121,Foglio1!$B$126)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$95,Foglio1!$E$101,Foglio1!$E$107,Foglio1!$E$113,Foglio1!$E$119,Foglio1!$E$125,Foglio1!$E$131)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1964999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8331999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0797999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.545599999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-19AA-4C48-863E-0C9409432038}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="717262448"/>
+        <c:axId val="648064368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="717262448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Malus X [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648064368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="648064368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Queue Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717262448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5903,6 +8848,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -8419,6 +11484,1515 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9134,6 +13708,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76F7ECB-2E99-4ECC-AEE3-62C7AE44815D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3259C466-AD1B-4637-B12F-2EF16CCCCC8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEABBFB-819B-4533-8721-3A90D27C1926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9439,10 +14121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580644AA-C2B0-43E6-B56A-09D7C6FC38E5}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="Q116" sqref="Q116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10913,6 +15595,737 @@
         <v>294.6472</v>
       </c>
     </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>0.01</v>
+      </c>
+      <c r="C90">
+        <v>0.5</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.68669999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>0.01</v>
+      </c>
+      <c r="C91">
+        <v>0.5</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.48089999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>0.01</v>
+      </c>
+      <c r="C92">
+        <v>0.5</v>
+      </c>
+      <c r="D92">
+        <v>13</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.24229999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>0.01</v>
+      </c>
+      <c r="C93">
+        <v>0.5</v>
+      </c>
+      <c r="D93">
+        <v>15</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.16719999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>0.01</v>
+      </c>
+      <c r="C94">
+        <v>0.5</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94" s="1">
+        <v>8.77E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>0.01</v>
+      </c>
+      <c r="C95">
+        <v>0.5</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>0.05</v>
+      </c>
+      <c r="C96">
+        <v>0.5</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.74709999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>0.05</v>
+      </c>
+      <c r="C97">
+        <v>0.5</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.52490000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>0.05</v>
+      </c>
+      <c r="C98">
+        <v>0.5</v>
+      </c>
+      <c r="D98">
+        <v>13</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0.26919999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>0.05</v>
+      </c>
+      <c r="C99">
+        <v>0.5</v>
+      </c>
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.19170000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>0.05</v>
+      </c>
+      <c r="C100">
+        <v>0.5</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.10580000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>0.05</v>
+      </c>
+      <c r="C101">
+        <v>0.5</v>
+      </c>
+      <c r="D101">
+        <v>50</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <v>0.5</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4.1898</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>0.5</v>
+      </c>
+      <c r="C103">
+        <v>0.5</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103" s="1">
+        <v>3.6459999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <v>0.5</v>
+      </c>
+      <c r="C104">
+        <v>0.5</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2.5693999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>0.5</v>
+      </c>
+      <c r="C105">
+        <v>0.5</v>
+      </c>
+      <c r="D105">
+        <v>15</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2.0259999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>0.5</v>
+      </c>
+      <c r="C106">
+        <v>0.5</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1.4579</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>0.5</v>
+      </c>
+      <c r="C107">
+        <v>0.5</v>
+      </c>
+      <c r="D107">
+        <v>50</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>0.5</v>
+      </c>
+      <c r="D108">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1">
+        <v>15.021599999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0.5</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109" s="1">
+        <v>13.2972</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0.5</v>
+      </c>
+      <c r="D110">
+        <v>13</v>
+      </c>
+      <c r="E110" s="1">
+        <v>9.6096000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0.5</v>
+      </c>
+      <c r="D111">
+        <v>15</v>
+      </c>
+      <c r="E111" s="1">
+        <v>7.6852</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>0.5</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
+      </c>
+      <c r="E112" s="1">
+        <v>5.6380999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>0.5</v>
+      </c>
+      <c r="D113">
+        <v>50</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2.1964999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>0.5</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="E114" s="1">
+        <v>59.944400000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>0.5</v>
+      </c>
+      <c r="D115">
+        <v>10</v>
+      </c>
+      <c r="E115" s="1">
+        <v>54.239600000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>0.5</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
+      </c>
+      <c r="E116" s="1">
+        <v>37.653500000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>0.5</v>
+      </c>
+      <c r="D117">
+        <v>15</v>
+      </c>
+      <c r="E117" s="1">
+        <v>30.6264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>0.5</v>
+      </c>
+      <c r="D118">
+        <v>20</v>
+      </c>
+      <c r="E118" s="1">
+        <v>22.604800000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>0.5</v>
+      </c>
+      <c r="D119">
+        <v>50</v>
+      </c>
+      <c r="E119" s="1">
+        <v>8.8331999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>0.5</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+      <c r="E120" s="1">
+        <v>68.291899999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>0.5</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121" s="1">
+        <v>54.837899999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>0.5</v>
+      </c>
+      <c r="D122">
+        <v>13</v>
+      </c>
+      <c r="E122" s="1">
+        <v>35.002000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>0.5</v>
+      </c>
+      <c r="D123">
+        <v>15</v>
+      </c>
+      <c r="E123" s="1">
+        <v>25.827400000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>0.5</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="E124" s="1">
+        <v>15.4657</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>0.5</v>
+      </c>
+      <c r="D125">
+        <v>50</v>
+      </c>
+      <c r="E125" s="1">
+        <v>5.0797999999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="C126">
+        <v>0.5</v>
+      </c>
+      <c r="D126">
+        <v>9</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1059.1928</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+      <c r="C127">
+        <v>0.5</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127" s="1">
+        <v>903.81510000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>0.5</v>
+      </c>
+      <c r="D128">
+        <v>13</v>
+      </c>
+      <c r="E128" s="1">
+        <v>581.0163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+      <c r="C129">
+        <v>0.5</v>
+      </c>
+      <c r="D129">
+        <v>15</v>
+      </c>
+      <c r="E129" s="1">
+        <v>443.13189999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>50</v>
+      </c>
+      <c r="C130">
+        <v>0.5</v>
+      </c>
+      <c r="D130">
+        <v>20</v>
+      </c>
+      <c r="E130" s="1">
+        <v>256.86130000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131">
+        <v>50</v>
+      </c>
+      <c r="C131">
+        <v>0.5</v>
+      </c>
+      <c r="D131">
+        <v>50</v>
+      </c>
+      <c r="E131" s="1">
+        <v>74.545599999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/analysis/Experiment2/Queue Length Xvariabile mfisso lognormal.xlsx
+++ b/analysis/Experiment2/Queue Length Xvariabile mfisso lognormal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\Experiment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F746517-7B67-4C90-AB99-96CF5E3330A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E2308-1D7B-4698-9470-BE863C0B86B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDBB8478-E643-4BF0-B900-BC1F2C343C2E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="6">
   <si>
     <t>Experiment</t>
   </si>
@@ -975,6 +975,2855 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="87511695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue Length for m=12s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$134:$E$139</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.76910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8400000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3FA-4537-B960-1BCD1F97E167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$140:$E$145</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.77380000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B3FA-4537-B960-1BCD1F97E167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$146:$E$151</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1901000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8095000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2043999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B3FA-4537-B960-1BCD1F97E167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$152:$E$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.2054999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3502999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87029999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B3FA-4537-B960-1BCD1F97E167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$158:$E$163</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.5212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.742100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4382999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4329999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B3FA-4537-B960-1BCD1F97E167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>X=10s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$164:$E$169</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>460.27350000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448.01580000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>431.70150000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420.35840000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>313.55360000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.906999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B3FA-4537-B960-1BCD1F97E167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>X=50s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$170:$E$175</c:f>
+              <c:numCache>
+                <c:formatCode>00,000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1187.0844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1006.5413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>634.45579999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>477.49579999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267.71460000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.192800000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B3FA-4537-B960-1BCD1F97E167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="458230623"/>
+        <c:axId val="367922847"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="458230623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367922847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="367922847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Queue Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458230623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue Length for m=12s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$134:$E$139</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.76910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8400000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A306-42A7-BAD8-08E757B37CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$140:$E$145</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.77380000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A306-42A7-BAD8-08E757B37CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$146:$E$151</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1901000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8095000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2043999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A306-42A7-BAD8-08E757B37CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$152:$E$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.2054999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3502999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87029999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A306-42A7-BAD8-08E757B37CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$134:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$158:$E$163</c:f>
+              <c:numCache>
+                <c:formatCode>00,000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.5212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.742100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4382999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4329999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A306-42A7-BAD8-08E757B37CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="372120959"/>
+        <c:axId val="361148703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="372120959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361148703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="361148703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Queue Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372120959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Length for m=12s</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k=9ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$134,Foglio1!$B$140,Foglio1!$B$146,Foglio1!$B$152,Foglio1!$B$158,Foglio1!$B$164,Foglio1!$B$170)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$134,Foglio1!$E$140,Foglio1!$E$146,Foglio1!$E$152,Foglio1!$E$158,Foglio1!$E$164,Foglio1!$E$170)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.76910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77380000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1901000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2054999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.5212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>460.27350000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1187.0844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C7F-47FC-A808-C949ABE57CEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k=10ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$134,Foglio1!$B$140,Foglio1!$B$146,Foglio1!$B$152,Foglio1!$B$158,Foglio1!$B$164,Foglio1!$B$170)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$135,Foglio1!$E$141,Foglio1!$E$147,Foglio1!$E$153,Foglio1!$E$159,Foglio1!$E$165,Foglio1!$E$171)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.50719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8095000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.742100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>448.01580000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1006.5413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C7F-47FC-A808-C949ABE57CEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>k=13ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$134,Foglio1!$B$140,Foglio1!$B$146,Foglio1!$B$152,Foglio1!$B$158,Foglio1!$B$164,Foglio1!$B$170)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$136,Foglio1!$E$142,Foglio1!$E$148,Foglio1!$E$154,Foglio1!$E$160,Foglio1!$E$166,Foglio1!$E$172)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.24590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2043999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.5337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>431.70150000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>634.45579999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C7F-47FC-A808-C949ABE57CEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>k=15ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$134,Foglio1!$B$140,Foglio1!$B$146,Foglio1!$B$152,Foglio1!$B$158,Foglio1!$B$164,Foglio1!$B$170)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$137,Foglio1!$E$143,Foglio1!$E$149,Foglio1!$E$155,Foglio1!$E$161,Foglio1!$E$167,Foglio1!$E$173)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3502999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>420.35840000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>477.49579999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7C7F-47FC-A808-C949ABE57CEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>k=20ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$134,Foglio1!$B$140,Foglio1!$B$146,Foglio1!$B$152,Foglio1!$B$158,Foglio1!$B$164,Foglio1!$B$170)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$138,Foglio1!$E$144,Foglio1!$E$150,Foglio1!$E$156,Foglio1!$E$162,Foglio1!$E$168,Foglio1!$E$174)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.8400000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1774</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4382999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>313.55360000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267.71460000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7C7F-47FC-A808-C949ABE57CEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>k=50ms</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Foglio1!$B$134,Foglio1!$B$140,Foglio1!$B$146,Foglio1!$B$152,Foglio1!$B$158,Foglio1!$B$164,Foglio1!$B$170)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$E$139,Foglio1!$E$145,Foglio1!$E$151,Foglio1!$E$157,Foglio1!$E$163,Foglio1!$E$169,Foglio1!$E$175)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87029999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.906999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.192800000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7C7F-47FC-A808-C949ABE57CEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="458190223"/>
+        <c:axId val="367923679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="458190223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Malus X [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367923679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="367923679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Queue Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458190223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8648,6 +11497,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8969,6 +11938,1515 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13821,6 +18299,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Grafico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683439FF-0922-45A0-993D-9BE4E491B938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Grafico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B40DCE7-95EB-4996-A234-8DCC827C2AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Grafico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED0CE3C-CA82-4777-B39B-01306E4B10C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14121,10 +18707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580644AA-C2B0-43E6-B56A-09D7C6FC38E5}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="Q116" sqref="Q116"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="M172" sqref="M172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16326,6 +20912,737 @@
         <v>74.545599999999993</v>
       </c>
     </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134">
+        <v>0.01</v>
+      </c>
+      <c r="C134">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0.76910000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>0.01</v>
+      </c>
+      <c r="C135">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0.50719999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>0.01</v>
+      </c>
+      <c r="C136">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>13</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0.24590000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>0.01</v>
+      </c>
+      <c r="C137">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0.17480000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>0.01</v>
+      </c>
+      <c r="C138">
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <v>20</v>
+      </c>
+      <c r="E138" s="1">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>0.01</v>
+      </c>
+      <c r="C139">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>50</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <v>0.05</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0.77380000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141">
+        <v>0.05</v>
+      </c>
+      <c r="C141">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>10</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0.53149999999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142">
+        <v>0.05</v>
+      </c>
+      <c r="C142">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>13</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0.2611</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143">
+        <v>0.05</v>
+      </c>
+      <c r="C143">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>15</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0.18609999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144">
+        <v>0.05</v>
+      </c>
+      <c r="C144">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>20</v>
+      </c>
+      <c r="E144" s="1">
+        <v>9.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>0.05</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>50</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146">
+        <v>0.5</v>
+      </c>
+      <c r="C146">
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2.1901000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>0.5</v>
+      </c>
+      <c r="C147">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>10</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1.8095000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148">
+        <v>0.5</v>
+      </c>
+      <c r="C148">
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>13</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1.2043999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149">
+        <v>0.5</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>15</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0.98880000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150">
+        <v>0.5</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>20</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0.61380000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151">
+        <v>0.5</v>
+      </c>
+      <c r="C151">
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>50</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0.2329</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>9</v>
+      </c>
+      <c r="E152" s="1">
+        <v>6.2054999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>10</v>
+      </c>
+      <c r="E153" s="1">
+        <v>5.4729999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>12</v>
+      </c>
+      <c r="D154">
+        <v>13</v>
+      </c>
+      <c r="E154" s="1">
+        <v>3.9603000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>12</v>
+      </c>
+      <c r="D155">
+        <v>15</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3.3502999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>12</v>
+      </c>
+      <c r="D156">
+        <v>20</v>
+      </c>
+      <c r="E156" s="1">
+        <v>2.1774</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <v>50</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0.87029999999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>12</v>
+      </c>
+      <c r="D158">
+        <v>9</v>
+      </c>
+      <c r="E158" s="1">
+        <v>22.5212</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>10</v>
+      </c>
+      <c r="E159" s="1">
+        <v>19.742100000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>13</v>
+      </c>
+      <c r="E160" s="1">
+        <v>15.5337</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <v>15</v>
+      </c>
+      <c r="E161" s="1">
+        <v>13.2018</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>20</v>
+      </c>
+      <c r="E162" s="1">
+        <v>8.4382999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>50</v>
+      </c>
+      <c r="E163" s="1">
+        <v>3.4329999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>9</v>
+      </c>
+      <c r="E164" s="1">
+        <v>460.27350000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>12</v>
+      </c>
+      <c r="D165">
+        <v>10</v>
+      </c>
+      <c r="E165" s="1">
+        <v>448.01580000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>13</v>
+      </c>
+      <c r="E166" s="1">
+        <v>431.70150000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>15</v>
+      </c>
+      <c r="E167" s="1">
+        <v>420.35840000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168">
+        <v>20</v>
+      </c>
+      <c r="E168" s="1">
+        <v>313.55360000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169">
+        <v>10</v>
+      </c>
+      <c r="C169">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>50</v>
+      </c>
+      <c r="E169" s="1">
+        <v>89.906999999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170">
+        <v>50</v>
+      </c>
+      <c r="C170">
+        <v>12</v>
+      </c>
+      <c r="D170">
+        <v>9</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1187.0844</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171">
+        <v>50</v>
+      </c>
+      <c r="C171">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>10</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1006.5413</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172">
+        <v>50</v>
+      </c>
+      <c r="C172">
+        <v>12</v>
+      </c>
+      <c r="D172">
+        <v>13</v>
+      </c>
+      <c r="E172" s="1">
+        <v>634.45579999999995</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173">
+        <v>50</v>
+      </c>
+      <c r="C173">
+        <v>12</v>
+      </c>
+      <c r="D173">
+        <v>15</v>
+      </c>
+      <c r="E173" s="1">
+        <v>477.49579999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174">
+        <v>50</v>
+      </c>
+      <c r="C174">
+        <v>12</v>
+      </c>
+      <c r="D174">
+        <v>20</v>
+      </c>
+      <c r="E174" s="1">
+        <v>267.71460000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175">
+        <v>50</v>
+      </c>
+      <c r="C175">
+        <v>12</v>
+      </c>
+      <c r="D175">
+        <v>50</v>
+      </c>
+      <c r="E175" s="1">
+        <v>76.192800000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/analysis/Experiment2/Queue Length Xvariabile mfisso lognormal.xlsx
+++ b/analysis/Experiment2/Queue Length Xvariabile mfisso lognormal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\Experiment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Poggiani\Documents\GitHub\PECSNproject\analysis\Experiment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E2308-1D7B-4698-9470-BE863C0B86B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA68E60-7BBB-4BC9-B399-48D132678794}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDBB8478-E643-4BF0-B900-BC1F2C343C2E}"/>
+    <workbookView minimized="1" xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="10044" xr2:uid="{EDBB8478-E643-4BF0-B900-BC1F2C343C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,7 +112,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -174,7 +174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -819,7 +819,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -857,7 +857,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94806207"/>
@@ -939,7 +939,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -971,7 +971,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87511695"/>
@@ -1013,7 +1013,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1050,7 +1050,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1064,7 +1064,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1126,7 +1126,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1749,7 +1749,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$170:$E$175</c:f>
               <c:numCache>
-                <c:formatCode>00,000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1187.0844</c:v>
@@ -1850,7 +1850,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1888,7 +1888,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="367922847"/>
@@ -1970,7 +1970,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2002,7 +2002,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="458230623"/>
@@ -2044,7 +2044,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2081,7 +2081,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2095,7 +2095,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2157,7 +2157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2592,7 +2592,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$158:$E$163</c:f>
               <c:numCache>
-                <c:formatCode>00,000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>22.5212</c:v>
@@ -2693,7 +2693,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2731,7 +2731,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361148703"/>
@@ -2813,7 +2813,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2845,7 +2845,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="372120959"/>
@@ -2887,7 +2887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2924,7 +2924,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2938,7 +2938,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3005,7 +3005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3668,7 +3668,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3706,7 +3706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="367923679"/>
@@ -3788,7 +3788,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3820,7 +3820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="458190223"/>
@@ -3862,7 +3862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3899,7 +3899,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3913,7 +3913,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3980,7 +3980,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4709,7 +4709,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4747,7 +4747,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134052399"/>
@@ -4829,7 +4829,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4861,7 +4861,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2002874767"/>
@@ -4903,7 +4903,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4940,7 +4940,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4954,7 +4954,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5021,7 +5021,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5580,7 +5580,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5618,7 +5618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94064015"/>
@@ -5705,7 +5705,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5737,7 +5737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="260820111"/>
@@ -5789,7 +5789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5826,7 +5826,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5840,7 +5840,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5902,7 +5902,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6634,7 +6634,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6672,7 +6672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493799840"/>
@@ -6759,7 +6759,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6791,7 +6791,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="386206608"/>
@@ -6833,7 +6833,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6870,7 +6870,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6884,7 +6884,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6946,7 +6946,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7609,7 +7609,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7647,7 +7647,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="752256352"/>
@@ -7729,7 +7729,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7761,7 +7761,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="386211808"/>
@@ -7803,7 +7803,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7840,7 +7840,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7854,7 +7854,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7916,7 +7916,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8270,7 +8270,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8308,7 +8308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="752253856"/>
@@ -8390,7 +8390,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8422,7 +8422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="768816576"/>
@@ -8464,7 +8464,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8501,7 +8501,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8515,7 +8515,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8577,7 +8577,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9306,7 +9306,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9344,7 +9344,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="551197888"/>
@@ -9426,7 +9426,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9458,7 +9458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="546183408"/>
@@ -9500,7 +9500,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9537,7 +9537,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9551,7 +9551,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9618,7 +9618,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10245,7 +10245,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10283,7 +10283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="551187488"/>
@@ -10365,7 +10365,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10397,7 +10397,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640874192"/>
@@ -10439,7 +10439,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10476,7 +10476,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10490,7 +10490,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10552,7 +10552,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11215,7 +11215,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11253,7 +11253,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="648064368"/>
@@ -11335,7 +11335,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11367,7 +11367,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="717262448"/>
@@ -11409,7 +11409,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11446,7 +11446,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18411,7 +18411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -18709,7 +18709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580644AA-C2B0-43E6-B56A-09D7C6FC38E5}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
       <selection activeCell="M172" sqref="M172"/>
     </sheetView>
   </sheetViews>

--- a/analysis/Experiment2/Queue Length Xvariabile mfisso lognormal.xlsx
+++ b/analysis/Experiment2/Queue Length Xvariabile mfisso lognormal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Poggiani\Documents\GitHub\PECSNproject\analysis\Experiment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clari\Desktop\Git\PECSNproject\analysis\Experiment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA68E60-7BBB-4BC9-B399-48D132678794}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210FB31-9470-4D69-BAF2-ED99066E4957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="10044" xr2:uid="{EDBB8478-E643-4BF0-B900-BC1F2C343C2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EDBB8478-E643-4BF0-B900-BC1F2C343C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,7 +112,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -174,7 +174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -819,7 +819,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -857,7 +857,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94806207"/>
@@ -939,7 +939,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -971,7 +971,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87511695"/>
@@ -1013,7 +1013,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1050,7 +1050,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1064,7 +1064,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1126,7 +1126,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1850,7 +1850,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1888,7 +1888,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="367922847"/>
@@ -1970,7 +1970,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2002,7 +2002,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="458230623"/>
@@ -2044,7 +2044,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2081,7 +2081,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2095,7 +2095,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2157,7 +2157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2693,7 +2693,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2731,7 +2731,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361148703"/>
@@ -2813,7 +2813,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2845,7 +2845,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="372120959"/>
@@ -2887,7 +2887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2924,7 +2924,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2938,7 +2938,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3005,7 +3005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3668,7 +3668,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3706,7 +3706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="367923679"/>
@@ -3788,7 +3788,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3820,7 +3820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="458190223"/>
@@ -3862,7 +3862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3899,7 +3899,1742 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Length  for m=4,5s</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$90:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1647-49AE-A3CC-1FA82E4158B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$96:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.74709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1647-49AE-A3CC-1FA82E4158B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$102:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1647-49AE-A3CC-1FA82E4158B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$108:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.021599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.2972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6096000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6380999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1964999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1647-49AE-A3CC-1FA82E4158B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$114:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59.944400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.239600000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.653500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.6264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.604800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8331999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1647-49AE-A3CC-1FA82E4158B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>X=10s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$120:$E$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>68.291899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.837899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.002000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.827400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.4657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0797999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1647-49AE-A3CC-1FA82E4158B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="640874192"/>
+        <c:axId val="551187488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="640874192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551187488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551187488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Queue Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640874192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Length  for m=4,5s</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0,01s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$90:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-720B-40DC-BCB3-A49ADFE8A6F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=0,05s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$96:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.74709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-720B-40DC-BCB3-A49ADFE8A6F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=0,5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$102:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-720B-40DC-BCB3-A49ADFE8A6F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>X=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$108:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.021599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.2972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6096000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6380999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1964999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-720B-40DC-BCB3-A49ADFE8A6F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>X=2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$114:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59.944400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.239600000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.653500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.6264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.604800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8331999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-720B-40DC-BCB3-A49ADFE8A6F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="640874192"/>
+        <c:axId val="551187488"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>X=10s</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$D$126:$D$131</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$E$120:$E$125</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>68.291899999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>54.837899999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>35.002000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25.827400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15.4657</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0797999999999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-720B-40DC-BCB3-A49ADFE8A6F0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="640874192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Interarrival Time k [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551187488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551187488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Queue Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640874192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3913,7 +5648,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3980,7 +5715,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4709,7 +6444,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4747,7 +6482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134052399"/>
@@ -4829,7 +6564,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4861,7 +6596,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2002874767"/>
@@ -4903,7 +6638,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4940,7 +6675,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4954,7 +6689,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5021,7 +6756,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5032,8 +6767,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9063969243027424E-2"/>
-          <c:y val="0.13682715376568383"/>
+          <c:x val="0.1289623365345853"/>
+          <c:y val="0.13682723220074494"/>
           <c:w val="0.75901091477498883"/>
           <c:h val="0.68980730049288985"/>
         </c:manualLayout>
@@ -5580,7 +7315,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5618,7 +7353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94064015"/>
@@ -5680,6 +7415,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2580029276940118E-2"/>
+              <c:y val="0.36211112452510735"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5705,7 +7448,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5737,7 +7480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="260820111"/>
@@ -5789,7 +7532,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5826,7 +7569,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5840,7 +7583,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5902,7 +7645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6634,7 +8377,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6672,7 +8415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493799840"/>
@@ -6759,7 +8502,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6791,7 +8534,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="386206608"/>
@@ -6833,7 +8576,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6870,7 +8613,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6884,7 +8627,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6946,7 +8689,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7609,7 +9352,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7647,7 +9390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="752256352"/>
@@ -7729,7 +9472,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7761,7 +9504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="386211808"/>
@@ -7803,7 +9546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7840,7 +9583,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7854,7 +9597,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7916,7 +9659,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8270,7 +10013,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8308,7 +10051,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="752253856"/>
@@ -8390,7 +10133,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8422,7 +10165,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="768816576"/>
@@ -8464,7 +10207,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8501,7 +10244,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8515,7 +10258,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8577,7 +10320,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9306,7 +11049,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9344,7 +11087,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="551197888"/>
@@ -9426,7 +11169,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9458,7 +11201,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="546183408"/>
@@ -9500,7 +11243,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9537,7 +11280,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9551,7 +11294,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9618,7 +11361,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10245,7 +11988,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10283,7 +12026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="551187488"/>
@@ -10365,7 +12108,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10397,7 +12140,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640874192"/>
@@ -10439,7 +12182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10476,7 +12219,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10490,7 +12233,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10552,7 +12295,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11215,7 +12958,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11253,7 +12996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="648064368"/>
@@ -11335,7 +13078,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11367,7 +13110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="717262448"/>
@@ -11409,7 +13152,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11446,7 +13189,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11578,6 +13321,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13949,6 +15772,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -18055,8 +20884,8 @@
       <xdr:rowOff>26669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -18407,11 +21236,87 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Grafico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D9F7BA-B36F-457C-9A07-A122EE71B4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Grafico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375A46D0-E8CB-4E48-8D77-43894BC46DC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -18705,21 +21610,593 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580644AA-C2B0-43E6-B56A-09D7C6FC38E5}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="M172" sqref="M172"/>
+    <sheetView tabSelected="1" topLeftCell="E103" workbookViewId="0">
+      <selection activeCell="X124" sqref="X124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18736,7 +22213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -18753,7 +22230,7 @@
         <v>0.71238400000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -18770,7 +22247,7 @@
         <v>0.486597</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -18787,7 +22264,7 @@
         <v>0.24629999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18804,7 +22281,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -18821,7 +22298,7 @@
         <v>8.9899999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -18838,7 +22315,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -18855,7 +22332,7 @@
         <v>0.82640199999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -18872,7 +22349,7 @@
         <v>0.601074</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -18889,7 +22366,7 @@
         <v>0.33339999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -18906,7 +22383,7 @@
         <v>0.24310000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -18923,7 +22400,7 @@
         <v>0.14169999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -18940,7 +22417,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -18957,7 +22434,7 @@
         <v>12.158099999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -18974,7 +22451,7 @@
         <v>10.5039</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -18991,7 +22468,7 @@
         <v>7.6565000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -19008,7 +22485,7 @@
         <v>6.2264999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -19025,7 +22502,7 @@
         <v>4.3699000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -19042,7 +22519,7 @@
         <v>1.6914</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -19059,7 +22536,7 @@
         <v>33.308500000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -19076,7 +22553,7 @@
         <v>31.8064</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -19093,7 +22570,7 @@
         <v>26.9754</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -19110,7 +22587,7 @@
         <v>22.849399999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -19127,7 +22604,7 @@
         <v>14.3154</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -19144,7 +22621,7 @@
         <v>6.8749000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -19161,7 +22638,7 @@
         <v>13.283799999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -19178,7 +22655,7 @@
         <v>10.1469</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -19195,7 +22672,7 @@
         <v>6.8979999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -19212,7 +22689,7 @@
         <v>5.6894999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -19229,7 +22706,7 @@
         <v>4.2171000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -19246,7 +22723,7 @@
         <v>1.6919</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -19263,7 +22740,7 @@
         <v>84.035499999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -19280,7 +22757,7 @@
         <v>79.308400000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -19297,7 +22774,7 @@
         <v>60.775700000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -19314,7 +22791,7 @@
         <v>52.7376</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -19331,7 +22808,7 @@
         <v>34.67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -19348,7 +22825,7 @@
         <v>10.4337</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -19365,7 +22842,7 @@
         <v>1136.3752999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -19382,7 +22859,7 @@
         <v>989.83950000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -19399,7 +22876,7 @@
         <v>679.6431</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -19416,7 +22893,7 @@
         <v>547.28020000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -19433,7 +22910,7 @@
         <v>330.1078</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -19450,7 +22927,7 @@
         <v>80.349299999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -19467,7 +22944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -19484,7 +22961,7 @@
         <v>0.68410000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -19501,7 +22978,7 @@
         <v>0.49280000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -19518,7 +22995,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -19535,7 +23012,7 @@
         <v>0.18229999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -19552,7 +23029,7 @@
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -19569,7 +23046,7 @@
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -19586,7 +23063,7 @@
         <v>1.0999000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -19603,7 +23080,7 @@
         <v>0.84309999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -19620,7 +23097,7 @@
         <v>0.50660000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -19637,7 +23114,7 @@
         <v>0.39150000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -19654,7 +23131,7 @@
         <v>0.24690000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -19671,7 +23148,7 @@
         <v>6.5600000000000006E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -19688,7 +23165,7 @@
         <v>0.64080000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -19705,7 +23182,7 @@
         <v>0.4501</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -19722,7 +23199,7 @@
         <v>0.23530000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -19739,7 +23216,7 @@
         <v>0.16789999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -19756,7 +23233,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -19773,7 +23250,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -19790,7 +23267,7 @@
         <v>48.395000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -19807,7 +23284,7 @@
         <v>46.786999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -19824,7 +23301,7 @@
         <v>36.610700000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -19841,7 +23318,7 @@
         <v>29.980699999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -19858,7 +23335,7 @@
         <v>21.2578</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -19875,7 +23352,7 @@
         <v>8.8870000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -19892,7 +23369,7 @@
         <v>59.890700000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -19909,7 +23386,7 @@
         <v>55.773000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -19926,7 +23403,7 @@
         <v>42.147500000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -19943,7 +23420,7 @@
         <v>37.8568</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -19960,7 +23437,7 @@
         <v>28.626200000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -19977,7 +23454,7 @@
         <v>11.1395</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -19994,7 +23471,7 @@
         <v>164.2013</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -20011,7 +23488,7 @@
         <v>147.00219999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -20028,7 +23505,7 @@
         <v>110.7985</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -20045,7 +23522,7 @@
         <v>99.316999999999993</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -20062,7 +23539,7 @@
         <v>71.450599999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -20079,7 +23556,7 @@
         <v>25.119599999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -20096,7 +23573,7 @@
         <v>2734.6082999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -20113,7 +23590,7 @@
         <v>2417.8526999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -20130,7 +23607,7 @@
         <v>1740.6501000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -20147,7 +23624,7 @@
         <v>1450.527</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -20164,7 +23641,7 @@
         <v>968.99810000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -20181,7 +23658,7 @@
         <v>294.6472</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -20198,7 +23675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -20215,7 +23692,7 @@
         <v>0.68669999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -20232,7 +23709,7 @@
         <v>0.48089999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -20249,7 +23726,7 @@
         <v>0.24229999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -20266,7 +23743,7 @@
         <v>0.16719999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -20283,7 +23760,7 @@
         <v>8.77E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -20300,7 +23777,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -20317,7 +23794,7 @@
         <v>0.74709999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -20334,7 +23811,7 @@
         <v>0.52490000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -20351,7 +23828,7 @@
         <v>0.26919999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -20368,7 +23845,7 @@
         <v>0.19170000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -20385,7 +23862,7 @@
         <v>0.10580000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -20402,7 +23879,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -20419,7 +23896,7 @@
         <v>4.1898</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -20436,7 +23913,7 @@
         <v>3.6459999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -20453,7 +23930,7 @@
         <v>2.5693999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -20470,7 +23947,7 @@
         <v>2.0259999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -20487,7 +23964,7 @@
         <v>1.4579</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -20504,7 +23981,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -20521,7 +23998,7 @@
         <v>15.021599999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -20538,7 +24015,7 @@
         <v>13.2972</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -20555,7 +24032,7 @@
         <v>9.6096000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -20572,7 +24049,7 @@
         <v>7.6852</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -20589,7 +24066,7 @@
         <v>5.6380999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -20606,7 +24083,7 @@
         <v>2.1964999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -20623,7 +24100,7 @@
         <v>59.944400000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -20640,7 +24117,7 @@
         <v>54.239600000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -20657,7 +24134,7 @@
         <v>37.653500000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -20674,7 +24151,7 @@
         <v>30.6264</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -20691,7 +24168,7 @@
         <v>22.604800000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -20708,7 +24185,7 @@
         <v>8.8331999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -20725,7 +24202,7 @@
         <v>68.291899999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -20742,7 +24219,7 @@
         <v>54.837899999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -20759,7 +24236,7 @@
         <v>35.002000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -20776,7 +24253,7 @@
         <v>25.827400000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -20793,7 +24270,7 @@
         <v>15.4657</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -20810,7 +24287,7 @@
         <v>5.0797999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -20827,7 +24304,7 @@
         <v>1059.1928</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -20844,7 +24321,7 @@
         <v>903.81510000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -20861,7 +24338,7 @@
         <v>581.0163</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -20878,7 +24355,7 @@
         <v>443.13189999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -20895,7 +24372,7 @@
         <v>256.86130000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -20912,7 +24389,7 @@
         <v>74.545599999999993</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -20929,7 +24406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -20946,7 +24423,7 @@
         <v>0.76910000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -20963,7 +24440,7 @@
         <v>0.50719999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -20980,7 +24457,7 @@
         <v>0.24590000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -20997,7 +24474,7 @@
         <v>0.17480000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -21014,7 +24491,7 @@
         <v>8.8400000000000006E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -21031,7 +24508,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -21048,7 +24525,7 @@
         <v>0.77380000000000004</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -21065,7 +24542,7 @@
         <v>0.53149999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -21082,7 +24559,7 @@
         <v>0.2611</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -21099,7 +24576,7 @@
         <v>0.18609999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -21116,7 +24593,7 @@
         <v>9.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -21133,7 +24610,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -21150,7 +24627,7 @@
         <v>2.1901000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -21167,7 +24644,7 @@
         <v>1.8095000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -21184,7 +24661,7 @@
         <v>1.2043999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -21201,7 +24678,7 @@
         <v>0.98880000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -21218,7 +24695,7 @@
         <v>0.61380000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -21235,7 +24712,7 @@
         <v>0.2329</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -21252,7 +24729,7 @@
         <v>6.2054999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -21269,7 +24746,7 @@
         <v>5.4729999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -21286,7 +24763,7 @@
         <v>3.9603000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -21303,7 +24780,7 @@
         <v>3.3502999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -21320,7 +24797,7 @@
         <v>2.1774</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -21337,7 +24814,7 @@
         <v>0.87029999999999996</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -21354,7 +24831,7 @@
         <v>22.5212</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -21371,7 +24848,7 @@
         <v>19.742100000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -21388,7 +24865,7 @@
         <v>15.5337</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -21405,7 +24882,7 @@
         <v>13.2018</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -21422,7 +24899,7 @@
         <v>8.4382999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -21439,7 +24916,7 @@
         <v>3.4329999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -21456,7 +24933,7 @@
         <v>460.27350000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -21473,7 +24950,7 @@
         <v>448.01580000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -21490,7 +24967,7 @@
         <v>431.70150000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -21507,7 +24984,7 @@
         <v>420.35840000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -21524,7 +25001,7 @@
         <v>313.55360000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -21541,7 +25018,7 @@
         <v>89.906999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -21558,7 +25035,7 @@
         <v>1187.0844</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -21575,7 +25052,7 @@
         <v>1006.5413</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -21592,7 +25069,7 @@
         <v>634.45579999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -21609,7 +25086,7 @@
         <v>477.49579999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -21626,7 +25103,7 @@
         <v>267.71460000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
